--- a/media/Crop_pollination_database.xlsx
+++ b/media/Crop_pollination_database.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="151">
   <si>
     <t xml:space="preserve">Color code for variables</t>
   </si>
@@ -283,16 +283,28 @@
  Sampling is provided</t>
   </si>
   <si>
-    <t xml:space="preserve">pollinator_richness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of estimated species richness [counts]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">richness_estimator_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method used for estimating richness, preferably Chao1.</t>
+    <t xml:space="preserve">observed_pollinator_richness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of different pollinator species observed [counts]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_pollinator_richness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimated number of different species [counts]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_richness_estimator_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method used for estimating “other_pollinator_richness”, preferably Chao1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">richness_restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free text to describe constraints on richness/abundance measurements, such as “only bees”, “only non-managed bees”, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">no needed if sheet on insect sampling is provided. Total amount of counts along transect lines [counts]. In the case of performing several transect walks,
@@ -370,11 +382,16 @@
     <t xml:space="preserve">If you collected visitation rates (visits per flower and time unit), those will be very valuable to compare with abundance data. </t>
   </si>
   <si>
+    <t xml:space="preserve">visitation_rate_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of legitimate visits (i.e. contacting reproductive structures) to crop units (flowers, branches,etc.), per unit time. Preferred units: [visits in 100 flowers during one hour].</t>
+  </si>
+  <si>
     <t xml:space="preserve">visitation_rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of legitimate visits (i.e. contacting reproductive structures) to crop flowers, per unit time and
-100 flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">Total visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve"> Sampling is provided</t>
@@ -383,61 +400,61 @@
     <t xml:space="preserve">visit_honeybee</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (honey bees) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (honey bees) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_bombus</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (bumble bees) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (bumble bees) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_wildbees</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (other wild bees) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (other wild bees) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_syrphids</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (syrphids) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (syrphids) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_humbleflies</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (bombyliidae) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (bombyliidae) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_other_flies</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (non syrphid or bombilida diptera) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (non syrphid or bombilida diptera) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_beetles</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (coleoptera) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (coleoptera) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_lepidoptera</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (lepidoptera: butterflies and moths) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (lepidoptera: butterflies and moths) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_nonbee_hymenoptera</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (nonbee hymenoptera: sawflies, wasps, ants, etc.) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (nonbee hymenoptera: sawflies, wasps, ants, etc.) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">visit_others</t>
   </si>
   <si>
-    <t xml:space="preserve">guild (other) visitation rate to crop flowers [visits in 100 flowers during one hour].</t>
+    <t xml:space="preserve">guild (other) visitation rate to crop units (flowers, branches,etc.) [use visitation_rate_units].</t>
   </si>
   <si>
     <t xml:space="preserve">Publication</t>
@@ -461,7 +478,7 @@
     <t xml:space="preserve">abundance </t>
   </si>
   <si>
-    <t xml:space="preserve">Description (Fee text)</t>
+    <t xml:space="preserve">Description_(fee_text)</t>
   </si>
   <si>
     <t xml:space="preserve">field_size</t>
@@ -707,7 +724,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -869,6 +886,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1060,17 +1081,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL91"/>
+  <dimension ref="A1:BL94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="37.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="107.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="119.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="4" style="3" width="11.57"/>
   </cols>
   <sheetData>
@@ -2175,7 +2196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="34"/>
       <c r="B51" s="36" t="s">
         <v>85</v>
@@ -2184,30 +2205,30 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="34"/>
-      <c r="B52" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="36" t="s">
         <v>87</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="34"/>
-      <c r="B53" s="37" t="s">
-        <v>88</v>
+      <c r="B53" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34"/>
       <c r="B54" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2276,74 +2297,74 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="34"/>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="37" t="s">
         <v>106</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="34"/>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="34"/>
+      <c r="B64" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="34"/>
+      <c r="B65" s="36" t="s">
         <v>24</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="34"/>
-      <c r="B64" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>111</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39" t="s">
+    <row r="66" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="34"/>
+      <c r="B66" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="41" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="B67" s="40" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="39"/>
-      <c r="B67" s="41" t="s">
+      <c r="C67" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="39"/>
       <c r="B68" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="20" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="39" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="39"/>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="42" t="s">
         <v>120</v>
       </c>
       <c r="C69" s="20" t="s">
@@ -2352,7 +2373,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="39"/>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="42" t="s">
         <v>122</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -2361,7 +2382,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="39"/>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="42" t="s">
         <v>124</v>
       </c>
       <c r="C71" s="20" t="s">
@@ -2370,7 +2391,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="39"/>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="42" t="s">
         <v>126</v>
       </c>
       <c r="C72" s="20" t="s">
@@ -2379,19 +2400,19 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="39"/>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="39"/>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2405,26 +2426,26 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="43"/>
-      <c r="B76" s="19" t="s">
+      <c r="A76" s="39"/>
+      <c r="B76" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="22" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="43"/>
-      <c r="B77" s="19" t="s">
+      <c r="A77" s="39"/>
+      <c r="B77" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="43"/>
-      <c r="B78" s="19" t="s">
+      <c r="A78" s="39"/>
+      <c r="B78" s="43" t="s">
         <v>138</v>
       </c>
       <c r="C78" s="20" t="s">
@@ -2432,20 +2453,47 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
-      <c r="B79" s="44"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="44"/>
+      <c r="B80" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="44"/>
+      <c r="B81" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3"/>
+      <c r="B82" s="45"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A64"/>
-    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="A50:A66"/>
+    <mergeCell ref="A67:A78"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2465,86 +2513,86 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="45" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="13.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="45" width="16.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="45" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="45" width="20.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="45" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="45" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="45" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="45" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="45" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="45" width="13.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="14" style="45" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="46" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="46" width="13.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="16.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="46" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="46" width="20.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="46" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="46" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="46" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="46" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="46" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="46" width="13.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="14" style="46" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+    <row r="1" s="51" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="J1" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="52"/>
+      <c r="E20" s="53"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2562,158 +2610,160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX2" activeCellId="0" sqref="AX2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="49" width="13.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="49" width="21.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="49" width="19.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="49" width="14.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="14" style="49" width="15.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="49" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="49" width="10.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="49" width="11.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="49" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="49" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="49" width="26.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="49" width="12.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="31" min="31" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="49" width="12.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="33" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="49" width="15.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="49" width="15.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="49" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="49" width="12.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="49" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="49" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="49" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="49" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="49" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="49" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="49" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="49" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="49" width="17.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="49" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="49" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="49" width="13.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="49" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="49" width="19.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="49" width="17.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="49" width="23.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="69" min="56" style="49" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="70" style="45" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="13.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="50" width="21.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="50" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="50" width="14.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="14" style="50" width="15.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="50" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="50" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="50" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="50" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="50" width="27.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="50" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="50" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="50" width="20.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="31" min="31" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="50" width="12.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="33" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="50" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="50" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="50" width="15.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="50" width="15.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="38" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="50" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="50" width="12.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="41" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="50" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="50" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="50" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="50" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="50" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="50" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="50" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="50" width="17.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="50" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="50" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="50" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="50" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="50" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="50" width="19.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="50" width="17.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="50" width="23.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="72" min="59" style="50" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="73" style="46" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="65" customFormat="true" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+    <row r="1" s="66" customFormat="true" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="54" t="s">
+      <c r="L1" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="V1" s="55" t="s">
+      <c r="U1" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="57" t="s">
+      <c r="Z1" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="58" t="s">
+      <c r="AA1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AB1" s="59" t="s">
         <v>85</v>
       </c>
       <c r="AC1" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF1" s="59" t="s">
+      <c r="AF1" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="59" t="s">
+      <c r="AG1" s="60" t="s">
         <v>94</v>
       </c>
       <c r="AH1" s="60" t="s">
@@ -2722,71 +2772,79 @@
       <c r="AI1" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AJ1" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="60" t="s">
+      <c r="AK1" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="AL1" s="60" t="s">
+      <c r="AL1" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AM1" s="58" t="s">
+      <c r="AM1" s="61" t="s">
         <v>106</v>
       </c>
       <c r="AN1" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO1" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="61" t="s">
+      <c r="AQ1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ1" s="63" t="s">
-        <v>114</v>
-      </c>
       <c r="AR1" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AS1" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT1" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT1" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="AU1" s="56" t="s">
+      <c r="AU1" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="AV1" s="56" t="s">
+      <c r="AV1" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="AW1" s="63" t="s">
+      <c r="AW1" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AX1" s="56" t="s">
+      <c r="AX1" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="AY1" s="56" t="s">
+      <c r="AY1" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="AZ1" s="62" t="s">
+      <c r="AZ1" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="BA1" s="64" t="s">
+      <c r="BA1" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="BB1" s="64" t="s">
+      <c r="BB1" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="BC1" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="AMJ1" s="0"/>
+      <c r="BC1" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD1" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE1" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF1" s="65" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="66"/>
-      <c r="AN5" s="7"/>
+      <c r="D5" s="67"/>
+      <c r="AP5" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/media/Crop_pollination_database.xlsx
+++ b/media/Crop_pollination_database.xlsx
@@ -116,7 +116,7 @@
     <t xml:space="preserve">total_sampled_flowers</t>
   </si>
   <si>
-    <t xml:space="preserve">number of flowers present along the census (transect walks/plant observations) in flowers per census [counts/m2].
+    <t xml:space="preserve">number of flowers present along the census (transect walks/plant observations) in flowers per census.
 In the case of performing several censuses, please, indicate the sum of the respective counts.</t>
   </si>
   <si>
@@ -1083,8 +1083,8 @@
   </sheetPr>
   <dimension ref="A1:BL94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2613,7 +2613,7 @@
   <dimension ref="A1:BF5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="AV1" activeCellId="0" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
